--- a/data/hotels_by_city/Dallas/Dallas_shard_100.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>SoccerChick555</t>
+  </si>
+  <si>
     <t>06/06/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Bob A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r581999790-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>The room I had was nice. Bed was comfortable. The breakfast is they typical fake eggs and sausage or bacon. Took a shower at 11:30 and no hot water. Was told because if over usage. Since most people already checked out, I’d say it was house keeping. But who doesn’t design water heaters to supply the demand? No shower curtain to a handicap shower. I did not chose handicap. Shower head leaked in multiple locations and shot water all over the floor and nothing I could do but take a cold shower and let the water go where it will. Internet was very slow. I doubt I would stay here again. More</t>
   </si>
   <si>
+    <t>EliasBN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r579983414-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>meevans53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r559118690-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>First night, found cold air coming into room, loud parking lot noises, when I investigated, found that someone had Jammed the window open &amp; broke the window lock. Went to front desk, showed the object jammed into the window rail and they went to look. Said the room was unsafe, and changed my room. Had to get a Luggage rack to move all my bags into new room. Got into the new room, everything unpacked again, and got into bed to see the smoke detector hanging from the ceiling. I decided to finish my 2nd night but while the renovation looks so much better, you can tell the lack of quality. Door hits the tile entry floor, carpet torn where door meets hallway. More</t>
   </si>
   <si>
+    <t>Ruben G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r556168621-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>We both loved the times we stayed there....it's perfect if you can't get seen parked at a hotel... she loved it because it was secluded. The staff is really friendly, the breakfast is amazing and the mall is just right there....perfect all the way aroundMore</t>
   </si>
   <si>
+    <t>LoveTraveling54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r481681594-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>This is a great hotel chain.  It's comparable to Holiday Inn Express, but rates are far less, I have found.  Clean, quiet, (even with the Mall next door).  Couple of restaurants within walking distance.  The only staff I met was the kind gentleman who checked us in.  Great value. This chain does a nice job!More</t>
   </si>
   <si>
+    <t>dlw36832</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r476973599-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>Great place to stay whenever your in town. It's right behind the mall so you can go shopping and there a lot of restaurants where you can eat. The staff is very accommodated. It's was very quiet and peaceful so I really enjoyed it. So whenever I'm in the DFW metroplex I will at this placeMore</t>
   </si>
   <si>
+    <t>ttonyatlh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r473958191-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -349,6 +373,9 @@
   </si>
   <si>
     <t>Just perfect! A special Thank You to the manager &amp; his right hand man Jason...who was so lucky to come on shift just in time as I walked in. I'm sure disaster was their inside voice (2 days little sleep, tried desperately to control road rage from all closed exits with no info, then final straw-diastrous hotel then transfer)...neuro issues kicked in full force &amp; boyfriend's words just kept resounding...calm down &amp; pls don't have a seizure (of course I didn't bring either of my therapy/Service dogs in with me). The Mgr got the call from Corp &amp; was expecting me, so as they got me checked in, &amp; they treated me so kind &amp; made me laugh!Between walking into my beautiful room (housekeeping is outstanding), &amp; the way I was treated from the moment I walked in to the hotel, I would highly recommend it to anyone!More</t>
+  </si>
+  <si>
+    <t>1twangster</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r473042809-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
@@ -387,6 +414,9 @@
 I paid $170...Slow internet service typical for all Choice Hotel locations.  Been a member for over 15 years.  Choice Hotels customer service is the worst in the industry, and their properties are consistently substandard.Unable to conduct several hours worth of needed business and other internet activities.Went down for coffee the next morning and found 'one of those machines.'  The coffee dispensed by these awful devices is not drinkable.  Tastes like weak, instant coffee.  This stuff is an insult to coffee drinkers.The hotel staff everywhere I go all tell me they are forced by Choice Hotels to serve this bilge water.I have been locked out of the Choice Hotels website for 9 months.  Their password change procedure does not work.  I have tried probably 20 times to get the password issue resolved.  I have contacted their customer service department many times and they now refuse to answer my requests for help.  I contacted the president of the company, and that was a waste of time.  I was charged for several no-shows after their online registration system changed my arrival dates without my knowledge.  Stranded one nigh in Denver as a result of one.  They refused to refund my money and called me a liar.  Subsequent research revealed numerous other similar complaints.I highly recommend staying the heck away from any Choice Hotels.  The company does not listen to nor do they care for their loyal customers.I paid $170 for one night in a $70 hotel.  I am going to take my business elsewhere, and I stay in hotels over 175 nights per year.More</t>
   </si>
   <si>
+    <t>S H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r469581253-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -411,6 +441,9 @@
     <t>Great, Calm, Peaceful, safe Area. Clean and comfortable rooms!!Great variety hot and cold breakfast included!Flexible and friendly Staff!!Rooms are spacious, CLEAN, and Well taken care of hotel clean!Area is calm and safe, walking distance to restaurants, Mall and stores.Great Service Overall Great!!Highly recommended!!!More</t>
   </si>
   <si>
+    <t>Pamschwindt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r467533160-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -435,6 +468,9 @@
     <t>Nice room with fridge and micro. Hot tub is very relaxing. Good parking. Beds very comfortable. Hardly anyone speaks English. That was a bit difficult. Spanish, mostly. Great breakfast daily. Many restaurants and shopping right nearbyMore</t>
   </si>
   <si>
+    <t>Ze4ko</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r467298730-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -459,6 +495,9 @@
     <t>We only stayed one night at this hotel before leaving early the next morning.Pros:1. It looks like the hotel has been recently renovated and everything is still new. 2. Sheets, towels and duvet were clean (one blood stain on one of the sheets, though).3. Good ventilation in the bathroom and good water pressure. 4. Wi-Fi worked fine.5. The AC worked fine. 6. Table lamps with built-in USB ports.7. Right next to Vista Ridge mall. 8. Extra blankets for those who prefer to sleep with lighter bedding. 9. Good basic breakfast – scrambled eggs, sausages, sausage patties, potatoes, bagels, bread, waffles, serial, pastries, yogurt and some fruit.10. Free parking. 11. Close to DFW airport. Cons:1. Difficult to find. There are no hotel signs on the road and the GPS takes you to another hotel called Country Inn. The Comfort Suites Vista Ridge Mall is located behind it, but there is no direct connection between the two, so you have to drive around and find the entrance. 2. We could hear people walking in the upper floor.3. Although the toilet bowl and seat were clean, the base was dirty – it had some hears and dried red stains.  4. One blood stain on one of the sheets.5. Lack of an in-room safe.More</t>
   </si>
   <si>
+    <t>Zi Jia N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r453134246-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -486,6 +525,9 @@
     <t>The bedroom and bathroom were spacious and clean. Refrigerator, microwave, and ironing board were available in the room. Basic toiletries were also provided. There was consistent warm water for shower. Breakfast was complimentary. The spread was similar to other hotels (e.g., toast, bagel, muffin, oatmeal, cereals, coffee, tea, juices, got chocolate, eggs, bacon, biscuit and gravy, yoghurt, apples, oranges, bananas, diy waffles). However, there were more flavors to choose from (compared to other hotels). For example, there were three different flavors for oatmeal. Likewise, there were two different flavors for waffle (strawberry vs. original). In addition, I like that they keep their yoghurt, cream, and cheese in a mini fridge (rather than put on ice). The location is great if you have time or plan to shop at Vista Ridge Mall, which is right behind the hotel. More</t>
   </si>
   <si>
+    <t>Ray G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r451917031-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -510,6 +552,9 @@
     <t>I have stayed here twice on business, once in November 2016 and again in January 2017.  Both times I found the facility clean and well maintained. The only drawback I found was that breakfast starts at 7:00 a.m. on the weekends and I must leave before that time to get to my meeting.  Starting breakfast at 6:00 a.m. as they do on weekdays would be more convenient for weekend workers.  Overall, this is a great place to stay and I would recommend it.More</t>
   </si>
   <si>
+    <t>Howard C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r449166529-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -535,6 +580,9 @@
   </si>
   <si>
     <t>Nice hotel.  Great breakfast.  Clean room.  Warm staff. However, the room was not a "suite" with the layout like we've experienced at another Comfort Suites Inn.  It was just a typical hotel room, so we were a bit disappointed.More</t>
+  </si>
+  <si>
+    <t>NieSam</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r416192757-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
@@ -570,6 +618,9 @@
 Breakfast was at the higher end of continental with fruits, eggs and meat added to the usual fare. The front desk staff were great,...My first priority in rating a hotel room is noting how I slept. And both my husband and I slept soundly and deeply each night of our week spent here. Construction is still ongoing but it didn't impact our stay at all. We were in and out throughout the day and our room was always quiet. The pool was shut for two days so you might want to check its availability if that's important to your stay. The main floor hallway around the elevator was dusty but it was right near where the work was ongoing.We had a king suite and it was really clean. The bed was comfortable, the linens were fresh &amp; clean and appeared new. The window had a room darkening shade that you rolled down making the room dark even in the daytime. It all made for a great night's sleep. We had a full size sofa and two benches that could be used for seating. There was a microwave and fridge which came in handy. In the bath, there were plenty of towels, hot water, and good shower pressure. The bathroom was recently remodeled and I was happy to see a grab bar in the bath. Some hotels are eliminating them in their redos which makes no sense to me.Breakfast was at the higher end of continental with fruits, eggs and meat added to the usual fare. The front desk staff were great, greeting us each time we came in. They were also helpful with directions, questions, and suggestions. It was nice to see a smile when you arrived!There's a small 'store' area where you can buy food, toiletries, and soft drinks.More</t>
   </si>
   <si>
+    <t>on3saycheese123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r415752478-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -585,6 +636,9 @@
     <t>BEWARE!!!:  This hotel will charge you for smoking in the room when you did not do so.  I stayed one night there and was only in the room from about 1am-noon. (sleeping).  I am a non smoker but after I  checked out I was charge for smoking in the  room.  They said they had evidence (photos) but would never produce such photos.  I would not recommend this hotel.  There are many in the area, so choose another one.  I chose this one because of the rate but in the end , I paid almost double.</t>
   </si>
   <si>
+    <t>Jose P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r415726192-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -597,6 +651,9 @@
     <t>The hotel was great. We stayed for 3 nights and slept really good. The beds were very comfortable. Good neighborhood and very well lit parking lot. Breakfast was good but the lady in charge was the only drawback because she had a stinky attitude towards people there but other than that, I definitely recommend this hotel.</t>
   </si>
   <si>
+    <t>Tarek E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r403837919-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -615,6 +672,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Teresa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r382043626-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -633,6 +693,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Jean P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r376564159-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -666,6 +729,9 @@
     <t>The hotel was hard to locate, it was hidden behind another hotel. The hotel was under renovation which was not good if you wanted to get rest in the morning before heading out. Staff was friendly. The breakfast was good. I must say the breakfast attendant was very pleasant and thoughtful. Overall we enjoyed our stay even though it was chaotic due to the remodeling. Very close to Restaurant's and Mall.</t>
   </si>
   <si>
+    <t>MWB-AZ_Traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r370290229-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -679,6 +745,9 @@
   </si>
   <si>
     <t>Recently remodeled and very nice. Rooms are fairly large and clean. Good location in Lewisville and close to restaurants, mall and much to do.Found Sheron at the front desk to be extremely helpful and friendly and the best. Highly recommend the hotel and a very cost-effective option for staying in the area.</t>
+  </si>
+  <si>
+    <t>Debby3605</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r359761116-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
@@ -710,6 +779,9 @@
 There was no breakfast available on site as was indicated on the website.  When asked, I was told we could go to the hotel across the street which was not very convenient at...Hands down, this was the worse experience at a hotel that my husband and I have ever experienced. Upon arrival which was late at night, it appeared the hotel was shut down.  The windows were papered and taped over and the front entrance was closed.  There was a group of what appeared to be contractors standing by that door.  We finally found a sign that said to enter via the side door.  When we walked in, we were absolutely shocked to find that the hotel was being renovated and the place looked like a war zone.   I immediately informed the desk clerk that I had not been informed that this hotel was being renovated when I booked our stay, and had I know, definitely would not have chosen this hotel.  Since our credit card had already been charged, we were informed that we would not be refunded our booking and we were basically stuck staying here. The floor was broken up, there was dust everywhere.  I asked the clerk what time did the workers begin/stop working and was given a vague answer so yes, we were subject to pounding and hammering and even a fire alarm that one of them set off in the early morning hours. There was no breakfast available on site as was indicated on the website.  When asked, I was told we could go to the hotel across the street which was not very convenient at all. We were given a room on the second floor and at times the elevator was blocked off for the workers to use so we had to go up/down stairs with our things which was extremely inconvenient.   Our room was in extremely bad shape.  The carpet was so dirty I wouldn’t walk on it without shoes on.  The TV reception was a joke.  We could not watch TV because the reception was so poor.  The wallpaper was coming off in the bathroom and there were dead bugs on the furniture.   One evening, we came back to the hotel and tape had been put over the lock on the door so people were able to access the hotel without a room key.  This was very disturbing as anyone could enter the hotel.  Safety is obviously not high on their priority list! We paid a total of $437.08 to stay in this hotel and we were extremely unsatisfied.  If I had been informed that this hotel was being renovated, I would not have chosen to stay here.  I believe the hotel should have been closed down for this renovation and consumers not subject to stay in these conditions.  There was dust everywhere and it was just unacceptable conditions.More</t>
   </si>
   <si>
+    <t>Tusherau</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r358889217-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -728,6 +800,9 @@
     <t>My friend and I stayed at this hotel a couple of weeks ago. The staff were very friendly and welcoming and the rooms were lovely, clean and comfortable. The ongoing renovations were very discreet. The night manager Breanna was very helpful. We travel to the US every couple of years to meet up with a group of ladies we met via the internet. This is the second time we have stayed at a Comfort Inn and would highly recommend them. As a group of 17, the hotel made the dining room available to us in the evenings as a place for us all to gather. Breakfast was included and was buffet style with plenty of choices.More</t>
   </si>
   <si>
+    <t>D R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r348584292-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -749,6 +824,9 @@
     <t>From the moment I arrived until I left one week later, the staff was so very accommodating to my needs and wishes, very friendly.  The pool was very clean, my 4year old and 5 year old granddaughters loved the pools.  True the building was under construction but the management made compensation by having us eat complementary breakfast next door. Even the construction workers were friendly and nice. The room and bathroom was clean in every way.  I have stayed in less than clean rooms before so I always check them out with a magnifying glass but this one was perfect. the location on 121 Sam Rayburn and I35 is ideal. The DART stations are so close, I used the green line to travel to downtown Dallas. DFW airport is close and easy to get to with no traffic. Lots of great dining within a short walk from hotel. I will definitely recommend this again and stay here again should I come to Lewisville.More</t>
   </si>
   <si>
+    <t>Michael O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r333789265-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -770,6 +848,9 @@
     <t>Upon arrival, it seemed that the front desk clerk was aggravated or upset that I was checking in. The overall room appearance is sub par, cobwebs in corners, carpet is worn and dirty, bathroom sink needs repair, and bed is caved in. TV signal is erratic, I called down to the front desk to report and was told "That's the way we get it from the satellite and there is nothing we can do about it." It's been over 24 hours since complaint and it is still not working. I have traveled all over the world for the past 35 years and I must say that what I'm about to tell you has never happened before. After using the restroom the toilet backed up and would not flush. I called " happy" at the front desk to report the malfunction. She asked me if I would come down a get a plunger. I can honestly say this is the poorest ran hotel I've stayed in many years if ever. I will never spend my money or my company's money at this location.More</t>
   </si>
   <si>
+    <t>MissK1220</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r329600992-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -786,6 +867,9 @@
   </si>
   <si>
     <t>November 2015</t>
+  </si>
+  <si>
+    <t>bobemac</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r329391738-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
@@ -832,6 +916,9 @@
 Most National Hotel chains have corporate customer relations staffs that are much more responsive than Choice Hotels.  I've had great...After my previous experience here, I wanted to avoid this place, but the Pricelinehotel list that I checked did not list this property. So I bid and lost.   Some of their previous issues have been fixed but they opened a big can of wormswith their latest failure; No Housekeeping Service.   We were visiting family in the area so we were gone for most of the day.Prior to leaving, I requested that our room be refreshed before we returned.   I spoke to several front desk clerks who promised service.When we returned no one had cleaned our room and it was past three PM.I called the front desk and they acted surprised, then they routed me to their managerwho was a Pakistani fellow. He stated they would get to it whenever they could.At 5:30 PM I realized that they couldn't clean my room at all.   I asked for fresh towels. When the desk clerk delivered the towels she mentioned that only two of the 5 housekeepers had shown up for work.    This is an obvious management problem and something to be aware of if you are a guest at this property. As a Choice Hotels Gold member, I called their customer relations department. Sadly they could care less and this reflects badly on their system.Most National Hotel chains have corporate customer relations staffs that are much more responsive than Choice Hotels.  I've had great experience with Hilton, Starwood,Hyatt, and Holiday Inn over the years.More</t>
   </si>
   <si>
+    <t>AntMan331305</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r327257789-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -856,6 +943,9 @@
     <t>The staff was friendly. Very helpful and professional at all times. Check-in was fast and hassle free.I had a clean room but a bit deteriorated. The bathroom floor had a few loose tiles. Saw some mold stains on the upper shower wall. The TV signal was weak and unbearable at times. The complementary breakfast was a miss except for the mini blueberry muffins. This hotel is pet friendly. expect to hear barking during the night. Good thing the noise level between rooms was low. Credit for that.More</t>
   </si>
   <si>
+    <t>Amyswrld2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r287063088-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -883,6 +973,9 @@
     <t>The front desk staff was polite and efficient. Beds are ok. The window could be opened and there was no lock on it. This bothered me. Location was good for seeing the July 4th fireworks. Plenty of nearby restaurants. This is an average hotel in this chain.More</t>
   </si>
   <si>
+    <t>divediva1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r286430497-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -898,6 +991,9 @@
     <t>Enjoyed my stay. The refrigerator was set too cold and froze everything that we put in it, but the bed was so comfortable and I love having a choice of soft, medium or firm pillows. The breakfast was comparable to others with the waffles and biscuits and gravy. This particular one had cinnamon waffle batter!</t>
   </si>
   <si>
+    <t>DSergi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r285886065-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -922,6 +1018,9 @@
     <t>I have stayed a lot of Comfort Suites over the years and this one was clearly one of the most friendly. While the property is an older the staff was outgoing and over the top friendly. Arriving after midnight is never the easiest when it comes to checking in. The front desk staff went out of their way to make sure that we were placed into the proper room. I had reserved a shovel and an assigned a king sized bedroom. The next morning manager at work out of her way to ask if everything was ok and made sure my kids had breakfast. I felt like I was at a bed-and-breakfast rather than at a chain hotel. The room it was well-maintained even though you could tell that it was an older property. More</t>
   </si>
   <si>
+    <t>Terry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r280520908-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1042,9 @@
     <t>We have stayed here in the past but I have failed to inform others as to how nice of a place it is and how friendly the staff is.  I have read other reviews as have determined it must be a clash of peoples egos and how they interpret rudeness on others.  If someone does not drop what they are doing the second a guest walks to the check in counter it must be that the staff is rude or if the staff does not bow down before them they must be rude.  I don't get it.  I have had dealing with about everyone in this darn hotel and I have not seem any sign of rudeness.  The place was clean, the service was fast, the pool clean.  I was in a good mood even after travelling down I35 at rush hour, ha.  Maybe that is the problem with guests they are tired and irritated and just want to make it bad for others.  I have not been sorry for staying here and will stay here again.More</t>
   </si>
   <si>
+    <t>travalot01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r280430277-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -967,6 +1069,9 @@
     <t>The maintenance of this Comfort Suite has definitely gone down since the last time I stayed there in 2014.  The smell in the room was musty and the carpets were stained,  the wallpaper in the bathroom was coming off the wall.  At least the bed was comfortable though that's about all this hotel had going for it.More</t>
   </si>
   <si>
+    <t>Eric E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r280128808-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -991,6 +1096,9 @@
     <t>the room was nice and housekeeping staff was friendly and professional. However multiple people we dealt with at the front desk were rude and insensitive and seem to care less about the guests. One snapped at my daughter because she showed up for breakfast a few minutes before their opening time even though we had been told that the breakfast opened earlier than it actually did. Another was very rude and short with us when we discussed the possibility of a later check out time. I know a hotel can't do everything you want. and I don't expect it to. But I really don't think it's appropriate for the front desk to snap a guests for no reason. if it was just one person at the front desk I would think it was just a bad apple. But when its multiple people I believe is bad management.More</t>
   </si>
   <si>
+    <t>raggarbil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r280115972-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1006,6 +1114,9 @@
     <t>This hotel is in an area with lots of hotels around a mall.From a distance it looks great and impressive and you expect a grand entrance but as you walk up the entrance is a single door without an opener. Once inside it's an small uninviting lobby area, again with a single door leading into the breakfast area. What was the architect thinking?!? So pretty poor first impression.But the room was great and the breakfast was great and everything was clean. I just can't get over the design/layout, there is simply something wrong and I don't get that cozy feeling in this hotel.More</t>
   </si>
   <si>
+    <t>Julie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r276176741-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1030,6 +1141,9 @@
     <t>Called three times to make a reservation and 3 times the front desk personal transferred me to the reservation line and nothing. All three times, it went dead. Called back and no apology just asked,"who hung up on whom?" What? So needless to say, I wont be staying there!More</t>
   </si>
   <si>
+    <t>kyle2225</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r272227230-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1045,6 +1159,9 @@
     <t>We stayed one night at the Comfort Suites near the Vista Ridge Mall. It was the least expense hotel in the area but had everything we needed. It is showing some age but was a very nice place. The room had 2 queen beds plus sofa sleeper. The beds were great, free WiFi, free breakfast and parking. There are lots of restaurants in the area and the mall is about 200 yards away. Worth the money.</t>
   </si>
   <si>
+    <t>cingdad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r270453760-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1060,6 +1177,9 @@
     <t>Tried for 3 hours to find a hotel around that wasn't overpriced and had a room available ( everyone around this area is always full with flipping kids sports)This was available and was a pleasant stay. Very quiet and clean, beds we're very comfortable and staff very helpful and friendlyMall across the street and food within walking distance</t>
   </si>
   <si>
+    <t>TXHOUNDDOG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r173696583-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1087,6 +1207,9 @@
     <t>Stayed here because relatives booked it for us.  Very convenient to all sorts of shopping  including a Costco and of course the Mall.  Nice outside. Hotel personnel very friendly, nice &amp; helpful. Rooms were a little shabby but clean. They offer a variety of pillows in the room from firm to soft which is nice because everyone likes something a little different.  Common areas were clean and well kept up.More</t>
   </si>
   <si>
+    <t>Garry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r167577823-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1114,6 +1237,9 @@
     <t>We really enjoyed our stay here. The hotel was 4 stars but the staff was 5 stars.Staff- Charlotte, the manager, Elizabeth, Patricia, and New Team Member(Hi Viola) went out of their way to make our stay a pleasure.Room- Everything was fine. A/C worked great on a 100 degree day, beds very comfortable. So comfortable my wife stayed in bed till 1 PM. Give me a break!Hotel- entrance is a little hard to find. In a group of 3 or 4 hotels. Building appears newer and is In great shape. Pool is indoors and very nice. Why 4 stars instead of 5? No bacon or sausage at breakfast. I need my MEAT!Thanks for a great stay.More</t>
   </si>
   <si>
+    <t>firetiger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r167342112-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1258,9 @@
     <t>For us it was the staff that dropped the ball. The beds &amp; AC were good &amp; everything worked ok, but the quality was just a notch lower than the $100 a night places. The main issue was the staff. I hardly ever rag on the staff, but this was the issues. Right off the bat, there was a sign at check in saying they had stepped away. Ok, I can see an emergency might cause this, but after at least 5 minutes of standing at the front desk, we literally had to call the hotels # on our cell. This brought someone up to the front answering on a cordless phone as they came. No apology for the wait was offered. There was also issues at the pool the next day. There was a staff member that decided to start maintenance on pool while the kids were in it, I'm not sure he even saw us, because his # 1 goal was obviously to try putting the moves on a female member of housekeeping who was noisily squeeging the windows behind our head. Very  unprofessional . The pool was pretty nice and inside. it was 4 feet deep all around. The free breakfast was pretty good with scrambled eggs ( no sausage or bacon) If the budget is tight it's not a really bad place, but I am fairly  sure we will spring for another $20 and stay at...For us it was the staff that dropped the ball. The beds &amp; AC were good &amp; everything worked ok, but the quality was just a notch lower than the $100 a night places. The main issue was the staff. I hardly ever rag on the staff, but this was the issues. Right off the bat, there was a sign at check in saying they had stepped away. Ok, I can see an emergency might cause this, but after at least 5 minutes of standing at the front desk, we literally had to call the hotels # on our cell. This brought someone up to the front answering on a cordless phone as they came. No apology for the wait was offered. There was also issues at the pool the next day. There was a staff member that decided to start maintenance on pool while the kids were in it, I'm not sure he even saw us, because his # 1 goal was obviously to try putting the moves on a female member of housekeeping who was noisily squeeging the windows behind our head. Very  unprofessional . The pool was pretty nice and inside. it was 4 feet deep all around. The free breakfast was pretty good with scrambled eggs ( no sausage or bacon) If the budget is tight it's not a really bad place, but I am fairly  sure we will spring for another $20 and stay at courtyard or one of the others next door. Oh I would say location was excellent, except as others noted its a little hard to find entrance. You really have to drive through another property's parking lot to get to this one. I will say it was a fairly quite stay, we were on 3rd floor &amp; no real outside noise.More</t>
   </si>
   <si>
+    <t>InHim4Him</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r165980573-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1153,6 +1282,9 @@
     <t>The breakfast had many options and they were tasty and fresh.  Our room had a bit of a musty smell but not overwhelming.  Our air conditioning seemed to be having trouble dealing with the triple digit heat, but it was not uncomfortable when we turned it way down.  Heard others commenting at breakfast about the same issue.  The room and bedding was clean and comfortable.  The frig needed to be cleaned from what looked like a spill but it worked well for the items from our ice chest.  We'd stay again if we are in the area.More</t>
   </si>
   <si>
+    <t>MandEfavoritespots</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r163731002-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1171,6 +1303,9 @@
     <t>This was my second stay here (many years between trips). I was impressed by this hotel .. Especially for the bargain price! The rooms were what you would expect. The beds were so comfortable as were the pillows. Bathroom was a bit outdated but still very clean. Breakfast was great and fully stocked each morning. Can't beat the location either. We would stay here again!More</t>
   </si>
   <si>
+    <t>greg t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r162420032-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1333,9 @@
     <t>Booked this last minute, had to come to Dallas area for business.  Rooms was clean, staff friendly, bathroom was outdated.  Bathroom ceiling tiles showed water damage, tile in bathroom was missing grout.  Bathroom was still clean but had noticeable problems.  Would stay again if in a crunch and need a last minute good deal.More</t>
   </si>
   <si>
+    <t>Stacy N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r157866784-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1219,6 +1357,9 @@
     <t>I have found a new place to stay.  When our regular hotel was booked up I frantically started looking for another place to stay and was blessed to find this one still had a room available.  The room was priced way lower than where we usually book but it was a far superior stay to the higher priced hotel.  The breakfast buffet was great, the bed so comfortable you were sorry when you had to get up.  This even had an indoor pool where the higher priced hotel we used before did not.  I will look with this franchise before I look anywhere else from now on.  The staff was nice, sweet, and very helpful.More</t>
   </si>
   <si>
+    <t>Curious88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r155940319-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1240,6 +1381,9 @@
     <t>The was a very nice hotel for us for a bargain price.  The location is very good, adjacent to a mall, many restaurants, and two major freeways.  The space in the room was above average, with a sofa and coffee table to the side of the bed and desk.  The complimentary breakfast was very good for a hotel of this category, with choices of a waffle, eggs, bacon or other meat, fruit, cereal, yogurt, and juices.  The Texas shaped waffle iron was a nice touch.  We didn't make it to the pool, but it looked nice and clean.  The staff was very friendly.  Though there are nicer hotels, I couldn't find one for this price.More</t>
   </si>
   <si>
+    <t>ajchandra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r146168090-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1255,6 +1399,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>shoeless59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r143289999-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1273,6 +1420,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>DonnaGarner222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r136179022-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1294,6 +1444,9 @@
     <t>We grandparents booked two rooms at Comfort Suites, Lewisville, so that we could celebrate our yearly Cousins' Camp together.  It was important for us to have two rooms side by side so that we could supervise our grandchildren. The staffer was kind enough to meet our request. All went well except when I decided to secure some cash in the motel desk safe.  In all the bustle of getting our family checked out on the final day, I forgot the money in the safe. When I called back to the motel after we were already home in Central Texas, the staffer was honest and helpful; and a family member from the area went by to pick up the money. The motel was clean, bug free, and had good mattresses and fluffy towels. The free hot breakfast each day filled up our teenage grandchildren nicely and saved us some money.  We happened to be in Lewisville during a heat advisory, and the motel air conditioning unit had to run at full maximum but was adequate. The three motels in this complex have made a mutual agreement for guests to utilize the workout and swimming facilities of their choice, and our grandchildren enjoyed the workout room in the motel across the parking lot.More</t>
   </si>
   <si>
+    <t>karencarlet1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r122584254-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1309,6 +1462,9 @@
     <t>This Comfort Inn sits with multiple other hotels around a shopping mall.  The problem is that there is no signage or street lights to find the road to get to it...we could see the hotel but tried three different streets before finding it.  Once we were inside, we found a clean, fairly new hotel with good breakfast and nice room.</t>
   </si>
   <si>
+    <t>KERtravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r120837084-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1327,6 +1483,9 @@
     <t>Super comfy beds...that's the best part. But this hotel lacks helpful service and you may even get a few dirty looks! The pool is freezing and the hot tub is lukewarm...and the staff will do nothing about it. The rooms are showing their age, especially the bathrooms, and our toilet was broken and ran the entire length if our three night stay. The help gets very agitated if you stay in your room a few minutes past when they want to clean it &amp; one lady even rolled her eyes at us when we told her we would be a few minutes more. It was also very loud and needs sound-proofing desperately for a good night's sleep! More</t>
   </si>
   <si>
+    <t>redtouren</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r119642582-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1348,6 +1507,9 @@
     <t>skip the hot breakfast. the runny eggs and crappy meats. go healthy. bathrooms are clean. tv has in HD. hbo and hbo HD. why have hd hbo and regular hbo? beds are soft. wifi is weak. the pool is 4 ft deep, but they need a 30 foot pole?  My stay had some families staying with little kids. those kids were running up and down the halls into late at night. a hotel is not chuck e cheeses. soundproofing is minimal. you can hear couples going at it if you are on the lower floors and on the same floor. you can also hear your neighbors also using the bathroom, taking a shower, watching tv, or yelling on the phone. fridge will get items cold if you left it over 12 hours. close to dining spots especially red nex.More</t>
   </si>
   <si>
+    <t>Toblerone92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r119455832-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1363,6 +1525,9 @@
     <t>We stayed here for 5 days, whilst visiting friends in the Lewisville area. The hotel was clean, staff friendly and the breakfast had a good range of items to choose from.Although the hotel was slightly dated, this did not in anyway detract from an enjoyable stay. The hotel is conveniently located for DFW, I-35 and TX 121 and of course, Vista Ridge Mall. All in all a great hotel with helpful and considerate staff. Will stay again when in the Lewisville Area.</t>
   </si>
   <si>
+    <t>steverk1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r118946316-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1378,6 +1543,9 @@
     <t>I've stayed at this hotel many times, including this past weekend.  It is hard to find, but worth the trouble.  The rooms are spacious (sleep 6 comfortably), has a decent indoor pool, and is adjacent to a large shopping mall.  It doesn't have a restaurant, but there are many nearby.I stayed using hotel points and feel the number required make this hotel a bargain. On the downside, this hotel has been around for at least 8 years.  It is beginning to show its age.  Hopefully, they will restore it to its former glory soon.</t>
   </si>
   <si>
+    <t>godsbooboo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r109205153-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1397,6 +1565,9 @@
   </si>
   <si>
     <t>My husband and I stayed in this hotel when we came to town for a college graduation.  Its location was great for where we needed to go for the graduation, plus it was close to our family.  For any type of visit, this Comfort Suites is in a great location, close to a mall, restaurants and two main freeways.  However, we were appalled at the cleanliness, or lack thereof, of our room.  Upon first entering the room we were greeted by a cloth chair that had multiple large stains on its seat and arms.  There was a dead bug on the comforter on the bed and, walking barefoot in the room, hair gathered between my toes as I walked.  It was late in the evening, we were tired from traveling, so we showered and went to bed (after removing the dead bug). The hotel has free Internet in each room, however it was "down" the morning of our stay.  There are multiple hotels in the area with similar pricing for their rooms.  I would not stay at the Comfort Suites at that location again.More</t>
+  </si>
+  <si>
+    <t>Nurse2000</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r101972179-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
@@ -1450,6 +1621,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>lijedo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r60469223-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1468,6 +1642,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>patriot88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r50867006-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1486,6 +1663,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>Hilde H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r38571726-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1504,6 +1684,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>cardsfan19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r38244027-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1522,6 +1705,9 @@
     <t>Stayed here Aug 15 - Aug 18.  Everything was very clean, staff was very helpful.  Kids loved the indoor pool and we enjoyed the hot tub.  Rooms were big (we had Queen Suite w/sleeper sofa) and we had plenty of room.  Breakfast was great, good selection and variety for everyone.  Liked the access to internet on lobby computer.  Next to Vista Ridge Mall (across parking lot) and close to a lot of restaurants and other shopping areas.The only issue I had was that it was kind of hard to find and get to as it was a little way off the main service road. The hotel could use a sign that is visible from the service road.  I had already located it on Google Earth, so I had a very good idea were the hotel was located.  Bottom Line:  Great Hotel, Great Value, Great Rooms, Great Service.  Will definitely stay here again and will recommend to friends visiting the area.More</t>
   </si>
   <si>
+    <t>OkieMom77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r34953411-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1540,6 +1726,9 @@
     <t>May 2008</t>
   </si>
   <si>
+    <t>FerndaleGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r26460880-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1556,6 +1745,9 @@
   </si>
   <si>
     <t>March 2009</t>
+  </si>
+  <si>
+    <t>scooterpie66</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d106748-r25890751-Comfort_Suites_Lewisville-Lewisville_Texas.html</t>
@@ -2075,43 +2267,47 @@
       <c r="A2" t="n">
         <v>32809</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>125575</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2125,50 +2321,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32809</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>27883</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2182,50 +2382,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32809</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>125576</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2245,50 +2449,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32809</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125577</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2302,50 +2510,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32809</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>125578</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2357,47 +2569,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32809</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>125579</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
@@ -2414,56 +2630,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32809</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>125580</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2479,56 +2699,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32809</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>125581</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2540,56 +2764,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32809</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>99530</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2605,56 +2833,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32809</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>125582</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2666,56 +2898,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32809</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>125583</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2727,56 +2963,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32809</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>125584</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2792,56 +3032,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="X13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32809</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>125585</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2853,56 +3097,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32809</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>35037</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2920,56 +3168,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="X15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32809</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125586</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2985,56 +3237,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32809</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125587</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3050,56 +3306,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>32809</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>125588</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3119,50 +3379,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32809</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>20449</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3176,50 +3440,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32809</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>17507</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3233,50 +3501,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32809</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>2622</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3294,50 +3566,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>32809</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>22691</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3357,7 +3633,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23">
@@ -3370,37 +3646,37 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3414,50 +3690,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>32809</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>125589</v>
+      </c>
+      <c r="C24" t="s">
+        <v>231</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3471,50 +3751,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>32809</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>125590</v>
+      </c>
+      <c r="C25" t="s">
+        <v>237</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="J25" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3534,50 +3818,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>32809</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>125591</v>
+      </c>
+      <c r="C26" t="s">
+        <v>245</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>243</v>
+      </c>
+      <c r="O26" t="s">
         <v>225</v>
-      </c>
-      <c r="L26" t="s">
-        <v>226</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>220</v>
-      </c>
-      <c r="O26" t="s">
-        <v>204</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3595,50 +3883,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>32809</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>25626</v>
+      </c>
+      <c r="C27" t="s">
+        <v>252</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3658,50 +3950,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>32809</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>2286</v>
+      </c>
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3721,50 +4017,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>32809</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125592</v>
+      </c>
+      <c r="C29" t="s">
+        <v>268</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3778,50 +4078,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>32809</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>37216</v>
+      </c>
+      <c r="C30" t="s">
+        <v>275</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="J30" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3839,50 +4143,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>32809</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>125593</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3900,56 +4208,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="X31" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="Y31" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>32809</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>8791</v>
+      </c>
+      <c r="C32" t="s">
+        <v>291</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3961,56 +4273,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="X32" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="Y32" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32809</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>125594</v>
+      </c>
+      <c r="C33" t="s">
+        <v>301</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="J33" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="O33" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4028,50 +4344,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32809</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>125595</v>
+      </c>
+      <c r="C34" t="s">
+        <v>307</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="J34" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4083,56 +4403,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="X34" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="Y34" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>32809</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>22207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>316</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="J35" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4152,50 +4476,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>32809</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>125596</v>
+      </c>
+      <c r="C36" t="s">
+        <v>324</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="J36" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="O36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -4211,56 +4539,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="X36" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="Y36" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>32809</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>15463</v>
+      </c>
+      <c r="C37" t="s">
+        <v>333</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4272,56 +4604,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="X37" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="Y37" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>32809</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>125597</v>
+      </c>
+      <c r="C38" t="s">
+        <v>342</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="J38" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="O38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4333,56 +4669,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="X38" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="Y38" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>32809</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>10047</v>
+      </c>
+      <c r="C39" t="s">
+        <v>348</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="K39" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4396,56 +4736,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="X39" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="Y39" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>32809</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>125598</v>
+      </c>
+      <c r="C40" t="s">
+        <v>357</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="J40" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="K40" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4465,50 +4809,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>32809</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>125599</v>
+      </c>
+      <c r="C41" t="s">
+        <v>363</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="J41" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="K41" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s">
+        <v>368</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>329</v>
       </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>295</v>
-      </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4522,50 +4870,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>32809</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>125600</v>
+      </c>
+      <c r="C42" t="s">
+        <v>369</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="J42" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="K42" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="O42" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4587,56 +4939,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="X42" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="Y42" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>32809</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>111626</v>
+      </c>
+      <c r="C43" t="s">
+        <v>379</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="J43" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="O43" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4658,47 +5014,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="X43" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="Y43" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>32809</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>125601</v>
+      </c>
+      <c r="C44" t="s">
+        <v>389</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="J44" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="K44" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="L44" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
@@ -4725,56 +5085,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="X44" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="Y44" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>32809</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>125602</v>
+      </c>
+      <c r="C45" t="s">
+        <v>396</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="J45" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="K45" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O45" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4796,47 +5160,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="X45" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="Y45" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>32809</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>46948</v>
+      </c>
+      <c r="C46" t="s">
+        <v>404</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="J46" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="K46" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="L46" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
@@ -4863,56 +5231,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="X46" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="Y46" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>32809</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>124627</v>
+      </c>
+      <c r="C47" t="s">
+        <v>411</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="J47" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="K47" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="L47" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="O47" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4934,56 +5306,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="X47" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="Y47" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>32809</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>125603</v>
+      </c>
+      <c r="C48" t="s">
+        <v>421</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="J48" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="K48" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="L48" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5007,50 +5383,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>32809</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>125604</v>
+      </c>
+      <c r="C49" t="s">
+        <v>429</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="J49" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="K49" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="L49" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="O49" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5074,50 +5454,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>32809</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>43407</v>
+      </c>
+      <c r="C50" t="s">
+        <v>437</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="J50" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="K50" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5141,50 +5525,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>32809</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>125605</v>
+      </c>
+      <c r="C51" t="s">
+        <v>443</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="J51" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="K51" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="L51" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="O51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5208,50 +5596,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>32809</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>125606</v>
+      </c>
+      <c r="C52" t="s">
+        <v>450</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="J52" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="K52" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="L52" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5275,41 +5667,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>32809</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>125607</v>
+      </c>
+      <c r="C53" t="s">
+        <v>458</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="J53" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="K53" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="L53" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -5338,41 +5734,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>32809</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>125608</v>
+      </c>
+      <c r="C54" t="s">
+        <v>464</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="J54" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="K54" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="L54" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -5401,50 +5801,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>32809</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>125609</v>
+      </c>
+      <c r="C55" t="s">
+        <v>471</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="J55" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="K55" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="L55" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="O55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5468,50 +5872,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>32809</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>125610</v>
+      </c>
+      <c r="C56" t="s">
+        <v>479</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="J56" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="K56" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="L56" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5535,50 +5943,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>32809</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>125611</v>
+      </c>
+      <c r="C57" t="s">
+        <v>485</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="J57" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="K57" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="L57" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5602,50 +6014,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>32809</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>125612</v>
+      </c>
+      <c r="C58" t="s">
+        <v>491</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="J58" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="K58" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="L58" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="O58" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5669,50 +6085,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>32809</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>125613</v>
+      </c>
+      <c r="C59" t="s">
+        <v>499</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="J59" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="K59" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="L59" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5736,7 +6156,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60">
@@ -5749,37 +6169,37 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="J60" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="K60" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="L60" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -5803,50 +6223,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>32809</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>125614</v>
+      </c>
+      <c r="C61" t="s">
+        <v>513</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="J61" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="K61" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="L61" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5870,50 +6294,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>32809</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>125615</v>
+      </c>
+      <c r="C62" t="s">
+        <v>520</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="J62" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="K62" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="L62" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -5937,50 +6365,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>32809</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>125616</v>
+      </c>
+      <c r="C63" t="s">
+        <v>527</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="J63" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="K63" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="L63" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="O63" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6004,50 +6436,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>32809</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>125617</v>
+      </c>
+      <c r="C64" t="s">
+        <v>534</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="J64" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="K64" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="L64" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6071,50 +6507,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>32809</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>125618</v>
+      </c>
+      <c r="C65" t="s">
+        <v>541</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="J65" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="K65" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="L65" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="O65" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6138,50 +6578,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>32809</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>125619</v>
+      </c>
+      <c r="C66" t="s">
+        <v>548</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="J66" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="K66" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="L66" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="O66" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6203,50 +6647,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>32809</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>125620</v>
+      </c>
+      <c r="C67" t="s">
+        <v>555</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="J67" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="K67" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="L67" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="O67" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6270,7 +6718,7 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
